--- a/admin/modules/fileExcel/basic.xlsx
+++ b/admin/modules/fileExcel/basic.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB3C483-C414-4875-97F2-FC6C91920CC6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5C0EB1-66E8-4EF6-8F3F-57D8C9BFCFAD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12600" yWindow="2508" windowWidth="11472" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>QUESTION_ID</t>
   </si>
@@ -70,104 +70,164 @@
     <t>Q10</t>
   </si>
   <si>
-    <t>Her latest film ....... its object in a very short space of time, which was to shock.</t>
-  </si>
-  <si>
-    <t>acquired</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>attained</t>
-  </si>
-  <si>
-    <t>The critics ....... to praise the work of this director whatever films he makes.</t>
-  </si>
-  <si>
-    <t>run</t>
-  </si>
-  <si>
-    <t>continue</t>
-  </si>
-  <si>
-    <t>persist</t>
-  </si>
-  <si>
-    <t>The film was the first to show conditions in which poor people lived and as such was to ....... future directors.</t>
-  </si>
-  <si>
-    <t>influence</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>infect</t>
-  </si>
-  <si>
-    <t>The only reason for them going to the cinema on that day was to find some form of ........</t>
-  </si>
-  <si>
-    <t>internment</t>
-  </si>
-  <si>
-    <t>involvement</t>
-  </si>
-  <si>
-    <t>engrossment</t>
-  </si>
-  <si>
-    <t>The director's intention in making the film was to try and ....... simplicity as seen by a child.</t>
-  </si>
-  <si>
-    <t>report</t>
-  </si>
-  <si>
-    <t>reprehend</t>
-  </si>
-  <si>
-    <t>represent</t>
-  </si>
-  <si>
-    <t>The fans outside the cinema on the first showing of the film were unwilling to ....... until all the stars had gone home.</t>
-  </si>
-  <si>
-    <t>dispose</t>
-  </si>
-  <si>
-    <t>displace</t>
-  </si>
-  <si>
-    <t>discover</t>
-  </si>
-  <si>
-    <t>The delay in ....... the film to the general public was because certain scenes were considered tasteless</t>
-  </si>
-  <si>
-    <t>replacing</t>
-  </si>
-  <si>
-    <t>repeating</t>
-  </si>
-  <si>
-    <t>releasing</t>
-  </si>
-  <si>
-    <t>The theme of the second film is quite simply a ....... of the first.</t>
-  </si>
-  <si>
-    <t>construction</t>
-  </si>
-  <si>
-    <t>continuation</t>
+    <t>Solar energy doesn’t cause………..</t>
+  </si>
+  <si>
+    <t>Tet is a festival………… occurs in late January or early February.</t>
+  </si>
+  <si>
+    <t>It’s raining. …………….., Mr. Nam has to go to work.</t>
+  </si>
+  <si>
+    <t>If I ………….rich, I ……………………….around the world.</t>
+  </si>
+  <si>
+    <t>The girl wishes she………………… in Hue for the festival next week.</t>
+  </si>
+  <si>
+    <t>You don’t like watching this film, …………………?</t>
+  </si>
+  <si>
+    <t>When he lived in the city, he …………… to the theater twice a week.</t>
+  </si>
+  <si>
+    <t>My house………….. in 1999</t>
+  </si>
+  <si>
+    <r>
+      <t>The entrance examination will be held………………….June 22</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2012.</t>
+    </r>
+  </si>
+  <si>
+    <t>Hoa: I suggest going camping next Sunday.- Lan: …………………………..</t>
+  </si>
+  <si>
+    <t>pollution</t>
+  </si>
+  <si>
+    <t>polluted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pollute </t>
+  </si>
+  <si>
+    <t>whom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when </t>
+  </si>
+  <si>
+    <t>Although</t>
+  </si>
+  <si>
+    <t>So</t>
+  </si>
+  <si>
+    <t xml:space="preserve">will be - travel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">were - would travel </t>
+  </si>
+  <si>
+    <t>am - will travel</t>
+  </si>
+  <si>
+    <t>had stayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was staying </t>
+  </si>
+  <si>
+    <t>don’t you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">are you </t>
+  </si>
+  <si>
+    <t xml:space="preserve">do you </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uses to go </t>
+  </si>
+  <si>
+    <t>used to go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has gone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">is built </t>
+  </si>
+  <si>
+    <t>was built</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was building </t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That’s a fine day </t>
+  </si>
+  <si>
+    <t xml:space="preserve">That’s a reason </t>
+  </si>
+  <si>
+    <t>That’s a good idea</t>
+  </si>
+  <si>
+    <t>which</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>could stay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,10 +236,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -204,13 +280,13 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -488,19 +564,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="92.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,159 +600,217 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>28</v>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>32</v>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>36</v>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>40</v>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>41</v>
       </c>
       <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
         <v>42</v>
       </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>44</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
       </c>
       <c r="D9" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>